--- a/Win32/Debug/Модель/Эксперименты по трём сценариям.xlsx
+++ b/Win32/Debug/Модель/Эксперименты по трём сценариям.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Diplon-Delphi\Win32\Debug\Модель\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95E7AB3-CCDC-4E1D-BCF3-7C02E6B302FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="375" windowWidth="11745" windowHeight="5010"/>
+    <workbookView xWindow="720" yWindow="375" windowWidth="11745" windowHeight="5010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ОПИСАНИЕ ИСХОДНЫХ УСЛОВИЙ" sheetId="4" r:id="rId1"/>
@@ -20,17 +26,17 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -61,12 +67,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -97,12 +103,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H54" authorId="0">
+    <comment ref="H54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -159,13 +165,13 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Lavlin</author>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="I6" authorId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -192,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M6" authorId="0">
+    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -219,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N10" authorId="1">
+    <comment ref="N10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -250,13 +256,13 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Lavlin</author>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="J4" authorId="0">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -283,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0">
+    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -310,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="1">
+    <comment ref="O8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -615,7 +621,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -1107,12 +1113,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1245,6 +1254,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E79-404F-886F-2195EBA3C237}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1265,6 +1279,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9E79-404F-886F-2195EBA3C237}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1367,7 +1386,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1495,6 +1514,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3193-4D5F-B281-F8CD5C903B1B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1545,6 +1569,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3193-4D5F-B281-F8CD5C903B1B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1647,7 +1676,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1687,11 +1716,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'[1]Графики-отклонение'!#REF!</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'[1]Графики-отклонение'!#REF!</c:f>
@@ -1705,6 +1729,26 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'[1]Графики-отклонение'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5AE3-4F3F-A120-05CBB87F669A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1803,7 +1847,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1881,6 +1925,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D4D-4C16-B089-1500844A265B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1942,7 +1991,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1960,7 +2009,6 @@
       <c:rotX val="15"/>
       <c:rotY val="140"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -2071,6 +2119,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2EC4-4485-BFAD-2EE322B10FD7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2158,6 +2211,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2EC4-4485-BFAD-2EE322B10FD7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2245,6 +2303,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2EC4-4485-BFAD-2EE322B10FD7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2332,6 +2395,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2EC4-4485-BFAD-2EE322B10FD7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2419,6 +2487,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2EC4-4485-BFAD-2EE322B10FD7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2506,6 +2579,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2EC4-4485-BFAD-2EE322B10FD7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -2593,6 +2671,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2EC4-4485-BFAD-2EE322B10FD7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -2680,6 +2763,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-2EC4-4485-BFAD-2EE322B10FD7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -2764,6 +2852,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-2EC4-4485-BFAD-2EE322B10FD7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:bandFmts/>
         <c:axId val="180949760"/>
@@ -2832,7 +2925,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2850,7 +2943,6 @@
       <c:rotX val="15"/>
       <c:rotY val="140"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -2961,6 +3053,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DABB-44E7-94A2-BB7D2084DBAD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3048,6 +3145,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DABB-44E7-94A2-BB7D2084DBAD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3135,6 +3237,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DABB-44E7-94A2-BB7D2084DBAD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3222,6 +3329,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DABB-44E7-94A2-BB7D2084DBAD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3309,6 +3421,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DABB-44E7-94A2-BB7D2084DBAD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -3396,6 +3513,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DABB-44E7-94A2-BB7D2084DBAD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -3483,6 +3605,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DABB-44E7-94A2-BB7D2084DBAD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -3570,6 +3697,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-DABB-44E7-94A2-BB7D2084DBAD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -3654,6 +3786,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-DABB-44E7-94A2-BB7D2084DBAD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:bandFmts/>
         <c:axId val="179976064"/>
@@ -3722,7 +3859,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3740,7 +3877,6 @@
       <c:rotX val="15"/>
       <c:rotY val="240"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -3841,6 +3977,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB20-4A88-9099-185643279EB1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3928,6 +4069,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CB20-4A88-9099-185643279EB1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4015,6 +4161,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CB20-4A88-9099-185643279EB1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4102,6 +4253,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CB20-4A88-9099-185643279EB1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -4189,6 +4345,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CB20-4A88-9099-185643279EB1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -4276,6 +4437,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CB20-4A88-9099-185643279EB1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -4363,6 +4529,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-CB20-4A88-9099-185643279EB1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -4450,6 +4621,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-CB20-4A88-9099-185643279EB1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -4537,6 +4713,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-CB20-4A88-9099-185643279EB1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:bandFmts/>
         <c:axId val="180103040"/>
@@ -4605,7 +4786,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4623,7 +4804,6 @@
       <c:rotX val="15"/>
       <c:rotY val="130"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -4736,6 +4916,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8026-4ECE-9372-92B5A3700219}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4835,6 +5020,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8026-4ECE-9372-92B5A3700219}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4934,6 +5124,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8026-4ECE-9372-92B5A3700219}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5033,6 +5228,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8026-4ECE-9372-92B5A3700219}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -5132,6 +5332,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8026-4ECE-9372-92B5A3700219}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -5231,6 +5436,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8026-4ECE-9372-92B5A3700219}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -5330,6 +5540,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8026-4ECE-9372-92B5A3700219}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -5429,6 +5644,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8026-4ECE-9372-92B5A3700219}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -5528,6 +5748,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8026-4ECE-9372-92B5A3700219}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -5627,6 +5852,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-8026-4ECE-9372-92B5A3700219}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -5723,6 +5953,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-8026-4ECE-9372-92B5A3700219}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:bandFmts/>
         <c:axId val="181284224"/>
@@ -5791,7 +6026,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5809,7 +6044,6 @@
       <c:rotX val="15"/>
       <c:rotY val="140"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -5932,6 +6166,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7EC5-4BAF-A179-5B878999D197}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6031,6 +6270,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7EC5-4BAF-A179-5B878999D197}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6130,6 +6374,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7EC5-4BAF-A179-5B878999D197}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -6229,6 +6478,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7EC5-4BAF-A179-5B878999D197}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -6328,6 +6582,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7EC5-4BAF-A179-5B878999D197}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -6427,6 +6686,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7EC5-4BAF-A179-5B878999D197}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -6526,6 +6790,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7EC5-4BAF-A179-5B878999D197}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -6625,6 +6894,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-7EC5-4BAF-A179-5B878999D197}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -6724,6 +6998,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-7EC5-4BAF-A179-5B878999D197}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -6823,6 +7102,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-7EC5-4BAF-A179-5B878999D197}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -6922,6 +7206,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-7EC5-4BAF-A179-5B878999D197}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:bandFmts/>
         <c:axId val="181156096"/>
@@ -7006,7 +7295,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Рисунок 16"/>
+        <xdr:cNvPr id="17" name="Рисунок 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7061,7 +7356,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Рисунок 17"/>
+        <xdr:cNvPr id="18" name="Рисунок 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7116,7 +7417,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Рисунок 18"/>
+        <xdr:cNvPr id="19" name="Рисунок 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7171,7 +7478,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Рисунок 19"/>
+        <xdr:cNvPr id="20" name="Рисунок 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7226,7 +7539,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Рисунок 20"/>
+        <xdr:cNvPr id="21" name="Рисунок 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7281,7 +7600,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Рисунок 21"/>
+        <xdr:cNvPr id="22" name="Рисунок 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7336,7 +7661,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvPr id="23" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7403,7 +7734,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Рисунок 23"/>
+        <xdr:cNvPr id="24" name="Рисунок 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7463,7 +7800,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7493,7 +7836,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7518,7 +7867,13 @@
     <xdr:ext cx="1692386" cy="558800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7589,7 +7944,13 @@
     <xdr:ext cx="1692386" cy="711733"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7957,7 +8318,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Рисунок 17"/>
+        <xdr:cNvPr id="18" name="Рисунок 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8012,7 +8379,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Рисунок 19"/>
+        <xdr:cNvPr id="20" name="Рисунок 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8067,7 +8440,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Рисунок 20"/>
+        <xdr:cNvPr id="21" name="Рисунок 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8122,7 +8501,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Рисунок 21"/>
+        <xdr:cNvPr id="22" name="Рисунок 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8177,7 +8562,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Рисунок 25"/>
+        <xdr:cNvPr id="26" name="Рисунок 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8232,7 +8623,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Рисунок 27"/>
+        <xdr:cNvPr id="28" name="Рисунок 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8287,7 +8684,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8371,7 +8774,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Рисунок 29"/>
+        <xdr:cNvPr id="30" name="Рисунок 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8431,7 +8840,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Рисунок 11"/>
+        <xdr:cNvPr id="12" name="Рисунок 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8486,7 +8901,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Рисунок 16"/>
+        <xdr:cNvPr id="17" name="Рисунок 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8541,7 +8962,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Рисунок 17"/>
+        <xdr:cNvPr id="18" name="Рисунок 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8596,7 +9023,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Рисунок 20"/>
+        <xdr:cNvPr id="21" name="Рисунок 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8651,7 +9084,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Рисунок 21"/>
+        <xdr:cNvPr id="22" name="Рисунок 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8706,7 +9145,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Рисунок 22"/>
+        <xdr:cNvPr id="23" name="Рисунок 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8761,7 +9206,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Рисунок 23"/>
+        <xdr:cNvPr id="24" name="Рисунок 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8821,7 +9272,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8853,7 +9310,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8885,7 +9348,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8917,7 +9386,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8954,7 +9429,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Рисунок 6"/>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8992,7 +9473,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Рисунок 8"/>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9030,7 +9517,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Рисунок 9"/>
+        <xdr:cNvPr id="10" name="Рисунок 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9073,7 +9566,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9098,7 +9597,13 @@
     <xdr:ext cx="643574" cy="298800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9153,7 +9658,13 @@
     <xdr:ext cx="663258" cy="298800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9213,7 +9724,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9238,7 +9755,13 @@
     <xdr:ext cx="643574" cy="298800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9298,7 +9821,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvPr id="8" name="Диаграмма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9815,24 +10344,13 @@
       <sheetName val="Графики_ЗП"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4">
-        <row r="3">
-          <cell r="D3">
-            <v>2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6">
-        <row r="3">
-          <cell r="C3">
-            <v>2006</v>
-          </cell>
-        </row>
         <row r="11">
           <cell r="AC11">
             <v>4.1687295444770789E-2</v>
@@ -9842,11 +10360,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -9895,7 +10413,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9928,9 +10446,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9963,6 +10498,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -10138,11 +10690,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A3:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
@@ -10500,11 +11052,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Значение от 1 до 3" sqref="H7">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Значение от 1 до 3" sqref="H7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
       <formula2>3</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7:P8 L7:L8 D7 D31 D52">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7:P8 L7:L8 D7 D31 D52" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>1</formula1>
       <formula2>3</formula2>
     </dataValidation>
@@ -10515,7 +11067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -10620,7 +11172,7 @@
     <row r="158" s="16" customFormat="1" ht="4.5" customHeight="1"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:F28">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:F28" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>1</formula1>
       <formula2>3</formula2>
     </dataValidation>
@@ -10633,13 +11185,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Лист3">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A2:K116"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
@@ -10710,7 +11262,7 @@
     <row r="116" s="16" customFormat="1" ht="10.5" customHeight="1"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29:D30">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29:D30" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>1</formula1>
       <formula2>3</formula2>
     </dataValidation>
@@ -10722,7 +11274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Лист4">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -11116,7 +11668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:M78"/>
   <sheetViews>
@@ -11516,7 +12068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Лист6"/>
   <dimension ref="B1:E46"/>
   <sheetViews>
@@ -11563,7 +12115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Лист7"/>
   <dimension ref="A6:W43"/>
   <sheetViews>
@@ -12782,7 +13334,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M15 E6 I6 M6:M8 Q6:Q8 Q14:Q15">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M15 E6 I6 M6:M8 Q6:Q8 Q14:Q15" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>1</formula1>
       <formula2>3</formula2>
     </dataValidation>
@@ -12794,7 +13346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Лист8"/>
   <dimension ref="C2:AD47"/>
   <sheetViews>
@@ -14853,7 +15405,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N13 F4 J4 N4:N6 R4:R6 R12:R13">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N13 F4 J4 N4:N6 R4:R6 R12:R13" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>1</formula1>
       <formula2>3</formula2>
     </dataValidation>
